--- a/Month 3/RPA/19_03_24 task/FIFA_Update.xlsx
+++ b/Month 3/RPA/19_03_24 task/FIFA_Update.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAPS\Desktop\Jinay Shah - STTL\Month 3\RPA\19_03_24 task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D9FD1C-838C-4E5A-B5F6-92B605758ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A88514C-5E42-4FA7-B5F1-39FE612F00F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{7DCD2ABC-AAF8-4C6C-8226-DEC334700620}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -191,7 +180,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -203,7 +192,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -250,23 +239,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -302,23 +274,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,7 +425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928138FE-DB2C-49DD-AAC0-8B49A6B0444E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
